--- a/磁易购【服务需求对接表】-表单反馈导出_2018-03-01.xlsx
+++ b/磁易购【服务需求对接表】-表单反馈导出_2018-03-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>磁易购【服务需求对接表】-反馈数据 (2018-03-01)</t>
   </si>
@@ -47,55 +47,28 @@
     <t>您本人是否同意,磁易购将您的信息推荐给可以对接您资源的人</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2018-03-01 12:27:13</t>
-  </si>
-  <si>
-    <t>陆先生</t>
-  </si>
-  <si>
-    <t>13823161984</t>
-  </si>
-  <si>
-    <t>110672023</t>
-  </si>
-  <si>
-    <t>龙</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>测试</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2018-03-01 13:45:43</t>
+  </si>
+  <si>
+    <t>彭羽</t>
+  </si>
+  <si>
+    <t>15179791585</t>
+  </si>
+  <si>
+    <t>赣州福定鑫贸易有限公司</t>
+  </si>
+  <si>
+    <t>总经理</t>
+  </si>
+  <si>
+    <t>钆铁现货，氧化钆达国标</t>
   </si>
   <si>
     <t>同意</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2018-03-01 12:26:55</t>
-  </si>
-  <si>
-    <t>陈先生</t>
-  </si>
-  <si>
-    <t>龙元</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2018-03-01 10:52:36</t>
-  </si>
-  <si>
-    <t>梁先生</t>
-  </si>
-  <si>
-    <t>龙元汇信</t>
   </si>
   <si>
     <t>由麦客CRM提供技术支持 ©2012-2018</t>
@@ -511,7 +484,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -581,88 +554,28 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>28</v>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/磁易购【服务需求对接表】-表单反馈导出_2018-03-01.xlsx
+++ b/磁易购【服务需求对接表】-表单反馈导出_2018-03-01.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>磁易购【服务需求对接表】-反馈数据 (2018-03-01)</t>
   </si>
@@ -47,25 +47,28 @@
     <t>您本人是否同意,磁易购将您的信息推荐给可以对接您资源的人</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2018-03-01 13:45:43</t>
-  </si>
-  <si>
-    <t>彭羽</t>
-  </si>
-  <si>
-    <t>15179791585</t>
-  </si>
-  <si>
-    <t>赣州福定鑫贸易有限公司</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>钆铁现货，氧化钆达国标</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2018-03-01 14:55:17</t>
+  </si>
+  <si>
+    <t>陈松</t>
+  </si>
+  <si>
+    <t>13327830732</t>
+  </si>
+  <si>
+    <t>13073413378</t>
+  </si>
+  <si>
+    <t>江苏博瑞通磁业有限公司</t>
+  </si>
+  <si>
+    <t>采购</t>
+  </si>
+  <si>
+    <t>采购各种钕铁棚废料</t>
   </si>
   <si>
     <t>同意</t>
@@ -554,28 +557,30 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="F3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
